--- a/mundofull/INFORMACION DE PROCESO.xlsx
+++ b/mundofull/INFORMACION DE PROCESO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\873419\Documents\GitHub\Tt\mundofull\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAFOLIO DE SERVICIOS" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,12 @@
     <sheet name="RETORNO DE INFORMACION" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="223">
   <si>
     <t>PRECIOS Y COSTOS POR UNIDAD</t>
   </si>
@@ -694,23 +699,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="17">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="174" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="175" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="176" formatCode="[$$-240A]\ #,##0.00"/>
-    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="173" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="174" formatCode="[$-2C0A]hh:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="175" formatCode="[$$-240A]\ #,##0.00"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -2210,17 +2215,17 @@
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2260,49 +2265,49 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2317,101 +2322,101 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="6" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="6" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1"/>
@@ -2419,7 +2424,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2428,34 +2433,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="2" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="2" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="71" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="71" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="62" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2470,29 +2475,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="6" borderId="83" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="6" borderId="83" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="6" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="6" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="86" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="86" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2502,27 +2507,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="93" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="93" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2532,28 +2537,28 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="174" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="172" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="13" fillId="8" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="15" fillId="9" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="9" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="26" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2571,16 +2576,16 @@
     <xf numFmtId="1" fontId="15" fillId="9" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="9" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="9" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="9" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="9" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="9" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="9" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="17" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,13 +2603,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="9" borderId="10" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="1" fillId="9" borderId="10" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="6" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="6" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="26" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2622,16 +2627,16 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="6" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="6" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="6" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="6" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="6" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="6" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="17" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="17" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2649,10 +2654,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="10" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="10" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="26" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2670,16 +2675,16 @@
     <xf numFmtId="1" fontId="15" fillId="10" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="10" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="10" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="10" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="10" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="10" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="10" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="17" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="17" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2697,12 +2702,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="172" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2715,22 +2720,22 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="13" fillId="8" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="13" fillId="8" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="8" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="13" fillId="8" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="174" fontId="13" fillId="8" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="13" fillId="8" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="13" fillId="8" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="26" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2748,16 +2753,16 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2772,7 +2777,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2848,8 +2853,8 @@
   <cellStyles count="27">
     <cellStyle name=" 1" xfId="4"/>
     <cellStyle name="Cancel" xfId="26"/>
+    <cellStyle name="Comma" xfId="25" builtinId="3"/>
     <cellStyle name="Euro" xfId="5"/>
-    <cellStyle name="Millares" xfId="25" builtinId="3"/>
     <cellStyle name="Millares [0] 2" xfId="6"/>
     <cellStyle name="Millares 2" xfId="7"/>
     <cellStyle name="Millares 3" xfId="8"/>
@@ -2880,12 +2885,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2927,7 +2935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2962,7 +2970,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3174,13 +3182,13 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
     <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4553,11 +4561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:36">
       <c r="A1" s="237" t="s">
@@ -5129,9 +5137,7 @@
       <c r="AA7" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="AB7" s="145" t="s">
-        <v>128</v>
-      </c>
+      <c r="AB7" s="145"/>
       <c r="AC7" s="156" t="s">
         <v>160</v>
       </c>
@@ -5962,6 +5968,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5969,11 +5976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV65535"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="J1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="193" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="193" bestFit="1" customWidth="1"/>
@@ -7705,7 +7712,7 @@
     <col min="16157" max="16384" width="11.42578125" style="193"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="194" t="s">
         <v>80</v>
       </c>
@@ -7791,7 +7798,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="22.5">
       <c r="A2" s="202">
         <v>41760</v>
       </c>
@@ -7859,7 +7866,7 @@
       <c r="AA2" s="204"/>
       <c r="AB2" s="204"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" ht="22.5">
       <c r="A3" s="202">
         <v>41760</v>
       </c>
@@ -7927,7 +7934,7 @@
       <c r="AA3" s="204"/>
       <c r="AB3" s="204"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="22.5">
       <c r="A4" s="202">
         <v>41760</v>
       </c>
@@ -7995,7 +8002,7 @@
       <c r="AA4" s="204"/>
       <c r="AB4" s="204"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="22.5">
       <c r="A5" s="202">
         <v>41760</v>
       </c>
@@ -8063,7 +8070,7 @@
       <c r="AA5" s="204"/>
       <c r="AB5" s="204"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="22.5">
       <c r="A6" s="202">
         <v>41760</v>
       </c>
@@ -8131,7 +8138,7 @@
       <c r="AA6" s="204"/>
       <c r="AB6" s="204"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" ht="22.5">
       <c r="A7" s="202">
         <v>41760</v>
       </c>
@@ -8199,7 +8206,7 @@
       <c r="AA7" s="204"/>
       <c r="AB7" s="204"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" ht="22.5">
       <c r="A8" s="202">
         <v>41760</v>
       </c>
@@ -8309,7 +8316,7 @@
       </c>
       <c r="IV65461" s="215">
         <f ca="1">+TODAY()-10</f>
-        <v>41753</v>
+        <v>41784</v>
       </c>
     </row>
     <row r="65462" spans="252:256">
@@ -8318,7 +8325,7 @@
       </c>
       <c r="IV65462" s="215">
         <f ca="1">+IV65461+1</f>
-        <v>41754</v>
+        <v>41785</v>
       </c>
     </row>
     <row r="65463" spans="252:256">
@@ -8327,7 +8334,7 @@
       </c>
       <c r="IV65463" s="215">
         <f t="shared" ref="IV65463:IV65526" ca="1" si="0">+IV65462+1</f>
-        <v>41755</v>
+        <v>41786</v>
       </c>
     </row>
     <row r="65464" spans="252:256">
@@ -8336,7 +8343,7 @@
       </c>
       <c r="IV65464" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41756</v>
+        <v>41787</v>
       </c>
     </row>
     <row r="65465" spans="252:256">
@@ -8345,7 +8352,7 @@
       </c>
       <c r="IV65465" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41757</v>
+        <v>41788</v>
       </c>
     </row>
     <row r="65466" spans="252:256">
@@ -8354,7 +8361,7 @@
       </c>
       <c r="IV65466" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41758</v>
+        <v>41789</v>
       </c>
     </row>
     <row r="65467" spans="252:256">
@@ -8363,7 +8370,7 @@
       </c>
       <c r="IV65467" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41759</v>
+        <v>41790</v>
       </c>
     </row>
     <row r="65468" spans="252:256">
@@ -8372,7 +8379,7 @@
       </c>
       <c r="IV65468" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41760</v>
+        <v>41791</v>
       </c>
     </row>
     <row r="65469" spans="252:256">
@@ -8381,7 +8388,7 @@
       </c>
       <c r="IV65469" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41761</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="65470" spans="252:256">
@@ -8390,7 +8397,7 @@
       </c>
       <c r="IV65470" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41762</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="65471" spans="252:256">
@@ -8399,7 +8406,7 @@
       </c>
       <c r="IV65471" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41763</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="65472" spans="252:256">
@@ -8408,7 +8415,7 @@
       </c>
       <c r="IV65472" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41764</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="65473" spans="255:256">
@@ -8417,7 +8424,7 @@
       </c>
       <c r="IV65473" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41765</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="65474" spans="255:256">
@@ -8426,7 +8433,7 @@
       </c>
       <c r="IV65474" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41766</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="65475" spans="255:256">
@@ -8435,7 +8442,7 @@
       </c>
       <c r="IV65475" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41767</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="65476" spans="255:256">
@@ -8444,7 +8451,7 @@
       </c>
       <c r="IV65476" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41768</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="65477" spans="255:256">
@@ -8453,7 +8460,7 @@
       </c>
       <c r="IV65477" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41769</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="65478" spans="255:256">
@@ -8462,7 +8469,7 @@
       </c>
       <c r="IV65478" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41770</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="65479" spans="255:256">
@@ -8471,7 +8478,7 @@
       </c>
       <c r="IV65479" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41771</v>
+        <v>41802</v>
       </c>
     </row>
     <row r="65480" spans="255:256">
@@ -8480,7 +8487,7 @@
       </c>
       <c r="IV65480" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41772</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="65481" spans="255:256">
@@ -8489,7 +8496,7 @@
       </c>
       <c r="IV65481" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41773</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="65482" spans="255:256">
@@ -8498,7 +8505,7 @@
       </c>
       <c r="IV65482" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41774</v>
+        <v>41805</v>
       </c>
     </row>
     <row r="65483" spans="255:256">
@@ -8507,7 +8514,7 @@
       </c>
       <c r="IV65483" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41775</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="65484" spans="255:256">
@@ -8516,7 +8523,7 @@
       </c>
       <c r="IV65484" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41776</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="65485" spans="255:256">
@@ -8525,7 +8532,7 @@
       </c>
       <c r="IV65485" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41777</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="65486" spans="255:256">
@@ -8534,7 +8541,7 @@
       </c>
       <c r="IV65486" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41778</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="65487" spans="255:256">
@@ -8543,7 +8550,7 @@
       </c>
       <c r="IV65487" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41779</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="65488" spans="255:256">
@@ -8552,7 +8559,7 @@
       </c>
       <c r="IV65488" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41780</v>
+        <v>41811</v>
       </c>
     </row>
     <row r="65489" spans="255:256">
@@ -8561,7 +8568,7 @@
       </c>
       <c r="IV65489" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41781</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="65490" spans="255:256">
@@ -8570,7 +8577,7 @@
       </c>
       <c r="IV65490" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41782</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="65491" spans="255:256">
@@ -8579,7 +8586,7 @@
       </c>
       <c r="IV65491" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41783</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="65492" spans="255:256">
@@ -8588,7 +8595,7 @@
       </c>
       <c r="IV65492" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41784</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="65493" spans="255:256">
@@ -8597,7 +8604,7 @@
       </c>
       <c r="IV65493" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41785</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="65494" spans="255:256">
@@ -8606,7 +8613,7 @@
       </c>
       <c r="IV65494" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41786</v>
+        <v>41817</v>
       </c>
     </row>
     <row r="65495" spans="255:256">
@@ -8615,7 +8622,7 @@
       </c>
       <c r="IV65495" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41787</v>
+        <v>41818</v>
       </c>
     </row>
     <row r="65496" spans="255:256">
@@ -8624,7 +8631,7 @@
       </c>
       <c r="IV65496" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41788</v>
+        <v>41819</v>
       </c>
     </row>
     <row r="65497" spans="255:256">
@@ -8633,7 +8640,7 @@
       </c>
       <c r="IV65497" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41789</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="65498" spans="255:256">
@@ -8642,7 +8649,7 @@
       </c>
       <c r="IV65498" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41790</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="65499" spans="255:256">
@@ -8651,7 +8658,7 @@
       </c>
       <c r="IV65499" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41791</v>
+        <v>41822</v>
       </c>
     </row>
     <row r="65500" spans="255:256">
@@ -8660,7 +8667,7 @@
       </c>
       <c r="IV65500" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41792</v>
+        <v>41823</v>
       </c>
     </row>
     <row r="65501" spans="255:256">
@@ -8669,7 +8676,7 @@
       </c>
       <c r="IV65501" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41793</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="65502" spans="255:256">
@@ -8678,7 +8685,7 @@
       </c>
       <c r="IV65502" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41794</v>
+        <v>41825</v>
       </c>
     </row>
     <row r="65503" spans="255:256">
@@ -8687,7 +8694,7 @@
       </c>
       <c r="IV65503" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41795</v>
+        <v>41826</v>
       </c>
     </row>
     <row r="65504" spans="255:256">
@@ -8696,7 +8703,7 @@
       </c>
       <c r="IV65504" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41796</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="65505" spans="255:256">
@@ -8705,7 +8712,7 @@
       </c>
       <c r="IV65505" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41797</v>
+        <v>41828</v>
       </c>
     </row>
     <row r="65506" spans="255:256">
@@ -8714,7 +8721,7 @@
       </c>
       <c r="IV65506" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41798</v>
+        <v>41829</v>
       </c>
     </row>
     <row r="65507" spans="255:256">
@@ -8723,7 +8730,7 @@
       </c>
       <c r="IV65507" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41799</v>
+        <v>41830</v>
       </c>
     </row>
     <row r="65508" spans="255:256">
@@ -8732,7 +8739,7 @@
       </c>
       <c r="IV65508" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41800</v>
+        <v>41831</v>
       </c>
     </row>
     <row r="65509" spans="255:256">
@@ -8741,7 +8748,7 @@
       </c>
       <c r="IV65509" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41801</v>
+        <v>41832</v>
       </c>
     </row>
     <row r="65510" spans="255:256">
@@ -8750,7 +8757,7 @@
       </c>
       <c r="IV65510" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41802</v>
+        <v>41833</v>
       </c>
     </row>
     <row r="65511" spans="255:256">
@@ -8759,7 +8766,7 @@
       </c>
       <c r="IV65511" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41803</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="65512" spans="255:256">
@@ -8768,7 +8775,7 @@
       </c>
       <c r="IV65512" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41804</v>
+        <v>41835</v>
       </c>
     </row>
     <row r="65513" spans="255:256">
@@ -8777,7 +8784,7 @@
       </c>
       <c r="IV65513" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41805</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="65514" spans="255:256">
@@ -8786,7 +8793,7 @@
       </c>
       <c r="IV65514" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41806</v>
+        <v>41837</v>
       </c>
     </row>
     <row r="65515" spans="255:256">
@@ -8795,7 +8802,7 @@
       </c>
       <c r="IV65515" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41807</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="65516" spans="255:256">
@@ -8804,7 +8811,7 @@
       </c>
       <c r="IV65516" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41808</v>
+        <v>41839</v>
       </c>
     </row>
     <row r="65517" spans="255:256">
@@ -8813,115 +8820,115 @@
       </c>
       <c r="IV65517" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41809</v>
+        <v>41840</v>
       </c>
     </row>
     <row r="65518" spans="255:256">
       <c r="IV65518" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41810</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="65519" spans="255:256">
       <c r="IV65519" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41811</v>
+        <v>41842</v>
       </c>
     </row>
     <row r="65520" spans="255:256">
       <c r="IV65520" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41812</v>
+        <v>41843</v>
       </c>
     </row>
     <row r="65521" spans="256:256">
       <c r="IV65521" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41813</v>
+        <v>41844</v>
       </c>
     </row>
     <row r="65522" spans="256:256">
       <c r="IV65522" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41814</v>
+        <v>41845</v>
       </c>
     </row>
     <row r="65523" spans="256:256">
       <c r="IV65523" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41815</v>
+        <v>41846</v>
       </c>
     </row>
     <row r="65524" spans="256:256">
       <c r="IV65524" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41816</v>
+        <v>41847</v>
       </c>
     </row>
     <row r="65525" spans="256:256">
       <c r="IV65525" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41817</v>
+        <v>41848</v>
       </c>
     </row>
     <row r="65526" spans="256:256">
       <c r="IV65526" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41818</v>
+        <v>41849</v>
       </c>
     </row>
     <row r="65527" spans="256:256">
       <c r="IV65527" s="215">
         <f t="shared" ref="IV65527:IV65535" ca="1" si="1">+IV65526+1</f>
-        <v>41819</v>
+        <v>41850</v>
       </c>
     </row>
     <row r="65528" spans="256:256">
       <c r="IV65528" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41820</v>
+        <v>41851</v>
       </c>
     </row>
     <row r="65529" spans="256:256">
       <c r="IV65529" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41821</v>
+        <v>41852</v>
       </c>
     </row>
     <row r="65530" spans="256:256">
       <c r="IV65530" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41822</v>
+        <v>41853</v>
       </c>
     </row>
     <row r="65531" spans="256:256">
       <c r="IV65531" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41823</v>
+        <v>41854</v>
       </c>
     </row>
     <row r="65532" spans="256:256">
       <c r="IV65532" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41824</v>
+        <v>41855</v>
       </c>
     </row>
     <row r="65533" spans="256:256">
       <c r="IV65533" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41825</v>
+        <v>41856</v>
       </c>
     </row>
     <row r="65534" spans="256:256">
       <c r="IV65534" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41826</v>
+        <v>41857</v>
       </c>
     </row>
     <row r="65535" spans="256:256">
       <c r="IV65535" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41827</v>
+        <v>41858</v>
       </c>
     </row>
   </sheetData>
@@ -8945,7 +8952,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="193" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="193" bestFit="1" customWidth="1"/>
@@ -10677,7 +10684,7 @@
     <col min="16157" max="16384" width="11.42578125" style="193"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="22.5">
       <c r="A1" s="194" t="s">
         <v>80</v>
       </c>
@@ -10763,7 +10770,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="21">
+    <row r="2" spans="1:28" ht="22.5">
       <c r="A2" s="202">
         <v>41760</v>
       </c>
@@ -10921,7 +10928,7 @@
       </c>
       <c r="AB3" s="204"/>
     </row>
-    <row r="4" spans="1:28" ht="21">
+    <row r="4" spans="1:28" ht="22.5">
       <c r="A4" s="202">
         <v>41760</v>
       </c>
@@ -11001,7 +11008,7 @@
       </c>
       <c r="AB4" s="204"/>
     </row>
-    <row r="5" spans="1:28" ht="21">
+    <row r="5" spans="1:28" ht="22.5">
       <c r="A5" s="202">
         <v>41760</v>
       </c>
@@ -11081,7 +11088,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="21">
+    <row r="6" spans="1:28" ht="22.5">
       <c r="A6" s="202">
         <v>41760</v>
       </c>
@@ -11239,7 +11246,7 @@
       </c>
       <c r="AB7" s="204"/>
     </row>
-    <row r="8" spans="1:28" ht="21">
+    <row r="8" spans="1:28" ht="22.5">
       <c r="A8" s="202">
         <v>41760</v>
       </c>
@@ -11357,7 +11364,7 @@
       </c>
       <c r="IV65461" s="215">
         <f ca="1">+TODAY()-10</f>
-        <v>41753</v>
+        <v>41784</v>
       </c>
     </row>
     <row r="65462" spans="252:256">
@@ -11366,7 +11373,7 @@
       </c>
       <c r="IV65462" s="215">
         <f ca="1">+IV65461+1</f>
-        <v>41754</v>
+        <v>41785</v>
       </c>
     </row>
     <row r="65463" spans="252:256">
@@ -11375,7 +11382,7 @@
       </c>
       <c r="IV65463" s="215">
         <f t="shared" ref="IV65463:IV65526" ca="1" si="0">+IV65462+1</f>
-        <v>41755</v>
+        <v>41786</v>
       </c>
     </row>
     <row r="65464" spans="252:256">
@@ -11384,7 +11391,7 @@
       </c>
       <c r="IV65464" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41756</v>
+        <v>41787</v>
       </c>
     </row>
     <row r="65465" spans="252:256">
@@ -11393,7 +11400,7 @@
       </c>
       <c r="IV65465" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41757</v>
+        <v>41788</v>
       </c>
     </row>
     <row r="65466" spans="252:256">
@@ -11402,7 +11409,7 @@
       </c>
       <c r="IV65466" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41758</v>
+        <v>41789</v>
       </c>
     </row>
     <row r="65467" spans="252:256">
@@ -11411,7 +11418,7 @@
       </c>
       <c r="IV65467" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41759</v>
+        <v>41790</v>
       </c>
     </row>
     <row r="65468" spans="252:256">
@@ -11420,7 +11427,7 @@
       </c>
       <c r="IV65468" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41760</v>
+        <v>41791</v>
       </c>
     </row>
     <row r="65469" spans="252:256">
@@ -11429,7 +11436,7 @@
       </c>
       <c r="IV65469" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41761</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="65470" spans="252:256">
@@ -11438,7 +11445,7 @@
       </c>
       <c r="IV65470" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41762</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="65471" spans="252:256">
@@ -11447,7 +11454,7 @@
       </c>
       <c r="IV65471" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41763</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="65472" spans="252:256">
@@ -11456,7 +11463,7 @@
       </c>
       <c r="IV65472" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41764</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="65473" spans="255:256">
@@ -11465,7 +11472,7 @@
       </c>
       <c r="IV65473" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41765</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="65474" spans="255:256">
@@ -11474,7 +11481,7 @@
       </c>
       <c r="IV65474" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41766</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="65475" spans="255:256">
@@ -11483,7 +11490,7 @@
       </c>
       <c r="IV65475" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41767</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="65476" spans="255:256">
@@ -11492,7 +11499,7 @@
       </c>
       <c r="IV65476" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41768</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="65477" spans="255:256">
@@ -11501,7 +11508,7 @@
       </c>
       <c r="IV65477" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41769</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="65478" spans="255:256">
@@ -11510,7 +11517,7 @@
       </c>
       <c r="IV65478" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41770</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="65479" spans="255:256">
@@ -11519,7 +11526,7 @@
       </c>
       <c r="IV65479" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41771</v>
+        <v>41802</v>
       </c>
     </row>
     <row r="65480" spans="255:256">
@@ -11528,7 +11535,7 @@
       </c>
       <c r="IV65480" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41772</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="65481" spans="255:256">
@@ -11537,7 +11544,7 @@
       </c>
       <c r="IV65481" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41773</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="65482" spans="255:256">
@@ -11546,7 +11553,7 @@
       </c>
       <c r="IV65482" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41774</v>
+        <v>41805</v>
       </c>
     </row>
     <row r="65483" spans="255:256">
@@ -11555,7 +11562,7 @@
       </c>
       <c r="IV65483" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41775</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="65484" spans="255:256">
@@ -11564,7 +11571,7 @@
       </c>
       <c r="IV65484" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41776</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="65485" spans="255:256">
@@ -11573,7 +11580,7 @@
       </c>
       <c r="IV65485" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41777</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="65486" spans="255:256">
@@ -11582,7 +11589,7 @@
       </c>
       <c r="IV65486" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41778</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="65487" spans="255:256">
@@ -11591,7 +11598,7 @@
       </c>
       <c r="IV65487" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41779</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="65488" spans="255:256">
@@ -11600,7 +11607,7 @@
       </c>
       <c r="IV65488" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41780</v>
+        <v>41811</v>
       </c>
     </row>
     <row r="65489" spans="255:256">
@@ -11609,7 +11616,7 @@
       </c>
       <c r="IV65489" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41781</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="65490" spans="255:256">
@@ -11618,7 +11625,7 @@
       </c>
       <c r="IV65490" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41782</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="65491" spans="255:256">
@@ -11627,7 +11634,7 @@
       </c>
       <c r="IV65491" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41783</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="65492" spans="255:256">
@@ -11636,7 +11643,7 @@
       </c>
       <c r="IV65492" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41784</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="65493" spans="255:256">
@@ -11645,7 +11652,7 @@
       </c>
       <c r="IV65493" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41785</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="65494" spans="255:256">
@@ -11654,7 +11661,7 @@
       </c>
       <c r="IV65494" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41786</v>
+        <v>41817</v>
       </c>
     </row>
     <row r="65495" spans="255:256">
@@ -11663,7 +11670,7 @@
       </c>
       <c r="IV65495" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41787</v>
+        <v>41818</v>
       </c>
     </row>
     <row r="65496" spans="255:256">
@@ -11672,7 +11679,7 @@
       </c>
       <c r="IV65496" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41788</v>
+        <v>41819</v>
       </c>
     </row>
     <row r="65497" spans="255:256">
@@ -11681,7 +11688,7 @@
       </c>
       <c r="IV65497" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41789</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="65498" spans="255:256">
@@ -11690,7 +11697,7 @@
       </c>
       <c r="IV65498" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41790</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="65499" spans="255:256">
@@ -11699,7 +11706,7 @@
       </c>
       <c r="IV65499" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41791</v>
+        <v>41822</v>
       </c>
     </row>
     <row r="65500" spans="255:256">
@@ -11708,7 +11715,7 @@
       </c>
       <c r="IV65500" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41792</v>
+        <v>41823</v>
       </c>
     </row>
     <row r="65501" spans="255:256">
@@ -11717,7 +11724,7 @@
       </c>
       <c r="IV65501" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41793</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="65502" spans="255:256">
@@ -11726,7 +11733,7 @@
       </c>
       <c r="IV65502" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41794</v>
+        <v>41825</v>
       </c>
     </row>
     <row r="65503" spans="255:256">
@@ -11735,7 +11742,7 @@
       </c>
       <c r="IV65503" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41795</v>
+        <v>41826</v>
       </c>
     </row>
     <row r="65504" spans="255:256">
@@ -11744,7 +11751,7 @@
       </c>
       <c r="IV65504" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41796</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="65505" spans="255:256">
@@ -11753,7 +11760,7 @@
       </c>
       <c r="IV65505" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41797</v>
+        <v>41828</v>
       </c>
     </row>
     <row r="65506" spans="255:256">
@@ -11762,7 +11769,7 @@
       </c>
       <c r="IV65506" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41798</v>
+        <v>41829</v>
       </c>
     </row>
     <row r="65507" spans="255:256">
@@ -11771,7 +11778,7 @@
       </c>
       <c r="IV65507" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41799</v>
+        <v>41830</v>
       </c>
     </row>
     <row r="65508" spans="255:256">
@@ -11780,7 +11787,7 @@
       </c>
       <c r="IV65508" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41800</v>
+        <v>41831</v>
       </c>
     </row>
     <row r="65509" spans="255:256">
@@ -11789,7 +11796,7 @@
       </c>
       <c r="IV65509" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41801</v>
+        <v>41832</v>
       </c>
     </row>
     <row r="65510" spans="255:256">
@@ -11798,7 +11805,7 @@
       </c>
       <c r="IV65510" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41802</v>
+        <v>41833</v>
       </c>
     </row>
     <row r="65511" spans="255:256">
@@ -11807,7 +11814,7 @@
       </c>
       <c r="IV65511" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41803</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="65512" spans="255:256">
@@ -11816,7 +11823,7 @@
       </c>
       <c r="IV65512" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41804</v>
+        <v>41835</v>
       </c>
     </row>
     <row r="65513" spans="255:256">
@@ -11825,7 +11832,7 @@
       </c>
       <c r="IV65513" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41805</v>
+        <v>41836</v>
       </c>
     </row>
     <row r="65514" spans="255:256">
@@ -11834,7 +11841,7 @@
       </c>
       <c r="IV65514" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41806</v>
+        <v>41837</v>
       </c>
     </row>
     <row r="65515" spans="255:256">
@@ -11843,7 +11850,7 @@
       </c>
       <c r="IV65515" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41807</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="65516" spans="255:256">
@@ -11852,7 +11859,7 @@
       </c>
       <c r="IV65516" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41808</v>
+        <v>41839</v>
       </c>
     </row>
     <row r="65517" spans="255:256">
@@ -11861,115 +11868,115 @@
       </c>
       <c r="IV65517" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41809</v>
+        <v>41840</v>
       </c>
     </row>
     <row r="65518" spans="255:256">
       <c r="IV65518" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41810</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="65519" spans="255:256">
       <c r="IV65519" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41811</v>
+        <v>41842</v>
       </c>
     </row>
     <row r="65520" spans="255:256">
       <c r="IV65520" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41812</v>
+        <v>41843</v>
       </c>
     </row>
     <row r="65521" spans="256:256">
       <c r="IV65521" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41813</v>
+        <v>41844</v>
       </c>
     </row>
     <row r="65522" spans="256:256">
       <c r="IV65522" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41814</v>
+        <v>41845</v>
       </c>
     </row>
     <row r="65523" spans="256:256">
       <c r="IV65523" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41815</v>
+        <v>41846</v>
       </c>
     </row>
     <row r="65524" spans="256:256">
       <c r="IV65524" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41816</v>
+        <v>41847</v>
       </c>
     </row>
     <row r="65525" spans="256:256">
       <c r="IV65525" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41817</v>
+        <v>41848</v>
       </c>
     </row>
     <row r="65526" spans="256:256">
       <c r="IV65526" s="215">
         <f t="shared" ca="1" si="0"/>
-        <v>41818</v>
+        <v>41849</v>
       </c>
     </row>
     <row r="65527" spans="256:256">
       <c r="IV65527" s="215">
         <f t="shared" ref="IV65527:IV65535" ca="1" si="1">+IV65526+1</f>
-        <v>41819</v>
+        <v>41850</v>
       </c>
     </row>
     <row r="65528" spans="256:256">
       <c r="IV65528" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41820</v>
+        <v>41851</v>
       </c>
     </row>
     <row r="65529" spans="256:256">
       <c r="IV65529" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41821</v>
+        <v>41852</v>
       </c>
     </row>
     <row r="65530" spans="256:256">
       <c r="IV65530" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41822</v>
+        <v>41853</v>
       </c>
     </row>
     <row r="65531" spans="256:256">
       <c r="IV65531" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41823</v>
+        <v>41854</v>
       </c>
     </row>
     <row r="65532" spans="256:256">
       <c r="IV65532" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41824</v>
+        <v>41855</v>
       </c>
     </row>
     <row r="65533" spans="256:256">
       <c r="IV65533" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41825</v>
+        <v>41856</v>
       </c>
     </row>
     <row r="65534" spans="256:256">
       <c r="IV65534" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41826</v>
+        <v>41857</v>
       </c>
     </row>
     <row r="65535" spans="256:256">
       <c r="IV65535" s="215">
         <f t="shared" ca="1" si="1"/>
-        <v>41827</v>
+        <v>41858</v>
       </c>
     </row>
   </sheetData>
@@ -11991,7 +11998,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
